--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/67/word_level_predictions_67.xlsx
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G95" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G96" s="2" t="b">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5806,470 +5806,470 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>manned</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>manned</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>8</v>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>anti-collision</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>9</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>7</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>anti-collision</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>10</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>7</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11549,237 +11549,237 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>13</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>8</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>13</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>installation</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>9</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>13</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>10</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>13</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>11</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>installation</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/67/word_level_predictions_67.xlsx
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G95" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G96" s="2" t="b">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5806,470 +5806,470 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>3</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>7</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>4</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>7</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>5</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>7</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>6</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>7</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>7</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>7</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>8</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>7</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>9</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>7</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>10</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>7</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -11573,213 +11573,213 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
